--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_6_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_6_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.392129184482955e-16</v>
+        <v>1.41429684665625e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.74393625244696</v>
+        <v>48.19965900304013</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[46.00552623155737, 51.48234627333656]</t>
+          <t>[45.606676500374164, 50.79264150570609]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.5786581702723481]</t>
+          <t>[1.553500271144502, 1.654131867655888]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.21171530926624</v>
+        <v>52.51806210883431</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.33589553285677, 53.08753508567571]</t>
+          <t>[50.758889139715926, 54.27723507795269]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.59115115115161</v>
+        <v>19.31123123123169</v>
       </c>
       <c r="X2" t="n">
-        <v>19.33269269269314</v>
+        <v>19.10358358358403</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.84960960961007</v>
+        <v>19.51887887887934</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.82000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.392129184482955e-16</v>
+        <v>1.41429684665625e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.73951107038125</v>
+        <v>48.65731167234735</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.19219104218392, 51.28683109857859]</t>
+          <t>[43.098198848418726, 54.216424496275984]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.232763547596349</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.106974051957118, 2.35855304323558]</t>
+          <t>[2.094395102393195, 2.320816194543811]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.58577091073706</v>
+        <v>52.16440885480622</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.68891803628513, 53.48262378518899]</t>
+          <t>[49.321443198291924, 55.00737451132051]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.71079079079088</v>
+        <v>14.78270270270278</v>
       </c>
       <c r="X3" t="n">
-        <v>14.25393393393402</v>
+        <v>14.37207207207215</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.16764764764774</v>
+        <v>15.19333333333342</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_6_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_6_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.93000000000061</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41429684665625e-16</v>
+        <v>1.403125465561019e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.19965900304013</v>
+        <v>46.35414668437702</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.606676500374164, 50.79264150570609]</t>
+          <t>[43.72143945267033, 48.98685391608371]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 1.654131867655888]</t>
+          <t>[1.452868674633117, 1.578658170272349]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.51806210883431</v>
+        <v>50.49912336348709</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.758889139715926, 54.27723507795269]</t>
+          <t>[48.71955461057529, 52.27869211639889]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.31123123123169</v>
+        <v>19.59873873873919</v>
       </c>
       <c r="X2" t="n">
-        <v>19.10358358358403</v>
+        <v>19.34018018018063</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.51887887887934</v>
+        <v>19.85729729729776</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.79000000000012</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.41429684665625e-16</v>
+        <v>1.403125465561019e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.65731167234735</v>
+        <v>48.82749658547377</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.098198848418726, 54.216424496275984]</t>
+          <t>[44.49036885828582, 53.16462431266173]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.207605648468503</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.094395102393195, 2.320816194543811]</t>
+          <t>[1.553500271144503, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.16440885480622</v>
+        <v>52.21685911061795</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.321443198291924, 55.00737451132051]</t>
+          <t>[49.445195438085086, 54.98852278315082]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.78270270270278</v>
+        <v>16.71027027027034</v>
       </c>
       <c r="X3" t="n">
-        <v>14.37207207207215</v>
+        <v>16.39327327327334</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.19333333333342</v>
+        <v>17.02726726726734</v>
       </c>
     </row>
   </sheetData>
